--- a/biology/Médecine/Bactériémie/Bactériémie.xlsx
+++ b/biology/Médecine/Bactériémie/Bactériémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bact%C3%A9ri%C3%A9mie</t>
+          <t>Bactériémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bactériémie est définie par la présence d'une bactérie pathogène dans le sang circulant, authentifiée par des hémocultures positives. Cette présence peut être éphémère ou chronique et peut être accompagnée de signes cliniques ou non.
 Une bactériémie peut être le point de départ d'un syndrome de réponse inflammatoire systémique (SRIS), d'un sepsis sévère ou non, voire dans les cas les plus graves d'un choc septique.
